--- a/Face Rotation Paper/Rotation Parameters.xlsx
+++ b/Face Rotation Paper/Rotation Parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\New Analysis Code\Param Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\Face Rotation Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7890EBDE-3EB1-4C45-8B7C-11B216F3DB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCD5690-534D-4522-B57E-69DDEC291A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Protocol</t>
   </si>
@@ -66,21 +66,12 @@
     <t>Char</t>
   </si>
   <si>
-    <t>Combined Chars</t>
-  </si>
-  <si>
     <t>Thai Chars</t>
   </si>
   <si>
     <t>English Chars</t>
   </si>
   <si>
-    <t>Chinese Chars_B</t>
-  </si>
-  <si>
-    <t>Chinese Chars_A</t>
-  </si>
-  <si>
     <t>Unfamiliar Face_Pitch</t>
   </si>
   <si>
@@ -112,6 +103,12 @@
   </si>
   <si>
     <t>English Short_Words</t>
+  </si>
+  <si>
+    <t>Chinese Chars</t>
+  </si>
+  <si>
+    <t>Nonsense Chars</t>
   </si>
 </sst>
 </file>
@@ -430,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +490,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -546,7 +543,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -599,219 +596,219 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.29403509866733052</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>3.2752647832374478E-2</v>
+        <v>0.13</v>
       </c>
       <c r="F4" s="1">
-        <v>562.98765073286302</v>
+        <v>517.48</v>
       </c>
       <c r="G4" s="1">
-        <v>3.7266789354393373</v>
+        <v>3.32</v>
       </c>
       <c r="H4" s="1">
-        <v>-0.82346612513714157</v>
+        <v>-0.97</v>
       </c>
       <c r="I4" s="1">
-        <v>9.6543555860875685</v>
+        <v>5.94</v>
       </c>
       <c r="J4" s="1">
-        <v>1.9308711172175137</v>
+        <v>0.85</v>
       </c>
       <c r="K4" s="1">
-        <v>0.18187405839538509</v>
+        <v>2.73</v>
       </c>
       <c r="L4" s="1">
-        <v>3.0658699174640015E-2</v>
+        <v>0.18</v>
       </c>
       <c r="M4" s="1">
-        <v>590.21288112120385</v>
+        <v>503.37</v>
       </c>
       <c r="N4" s="1">
-        <v>3.4106211249196421</v>
+        <v>4.54</v>
       </c>
       <c r="O4" s="1">
-        <v>0.6047055091001039</v>
+        <v>0.97</v>
       </c>
       <c r="P4" s="1">
-        <v>22.231547837120402</v>
+        <v>14.97</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.4463095674240805</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1">
-        <v>-2.0699999999999998</v>
+        <v>-1.01</v>
       </c>
       <c r="E5" s="1">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="F5" s="1">
-        <v>517.48</v>
+        <v>522.25</v>
       </c>
       <c r="G5" s="1">
-        <v>3.32</v>
+        <v>3.14</v>
       </c>
       <c r="H5" s="1">
-        <v>-0.97</v>
+        <v>-0.98</v>
       </c>
       <c r="I5" s="1">
-        <v>5.94</v>
+        <v>4.03</v>
       </c>
       <c r="J5" s="1">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="K5" s="1">
-        <v>2.73</v>
+        <v>0.84</v>
       </c>
       <c r="L5" s="1">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="M5" s="1">
-        <v>503.37</v>
+        <v>525.85</v>
       </c>
       <c r="N5" s="1">
-        <v>4.54</v>
+        <v>2.89</v>
       </c>
       <c r="O5" s="1">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="P5" s="1">
-        <v>14.97</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.14</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1">
-        <v>-1.01</v>
+        <v>-0.43</v>
       </c>
       <c r="E6" s="1">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="F6" s="1">
-        <v>522.25</v>
+        <v>520.59</v>
       </c>
       <c r="G6" s="1">
-        <v>3.14</v>
+        <v>3.63</v>
       </c>
       <c r="H6" s="1">
-        <v>-0.98</v>
+        <v>-0.99</v>
       </c>
       <c r="I6" s="1">
-        <v>4.03</v>
+        <v>1.26</v>
       </c>
       <c r="J6" s="1">
-        <v>0.81</v>
+        <v>0.25</v>
       </c>
       <c r="K6" s="1">
-        <v>0.84</v>
+        <v>0.4</v>
       </c>
       <c r="L6" s="1">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="M6" s="1">
-        <v>525.85</v>
+        <v>525.28</v>
       </c>
       <c r="N6" s="1">
-        <v>2.89</v>
+        <v>2.77</v>
       </c>
       <c r="O6" s="1">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="P6" s="1">
-        <v>5.0999999999999996</v>
+        <v>8.4</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.02</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.43</v>
+        <v>-1.5202895627830251</v>
       </c>
       <c r="E7" s="1">
-        <v>0.03</v>
+        <v>0.1276966867452097</v>
       </c>
       <c r="F7" s="1">
-        <v>520.59</v>
+        <v>507.9419203730784</v>
       </c>
       <c r="G7" s="1">
-        <v>3.63</v>
+        <v>3.9079362362403307</v>
       </c>
       <c r="H7" s="1">
-        <v>-0.99</v>
+        <v>-0.9697035896349141</v>
       </c>
       <c r="I7" s="1">
-        <v>1.26</v>
+        <v>2.9064421273261405</v>
       </c>
       <c r="J7" s="1">
-        <v>0.25</v>
+        <v>0.41520601818944863</v>
       </c>
       <c r="K7" s="1">
-        <v>0.4</v>
+        <v>2.228301612010732</v>
       </c>
       <c r="L7" s="1">
-        <v>0.03</v>
+        <v>0.13526473317471491</v>
       </c>
       <c r="M7" s="1">
-        <v>525.28</v>
+        <v>505.42948501647555</v>
       </c>
       <c r="N7" s="1">
-        <v>2.77</v>
+        <v>4.1269047033831621</v>
       </c>
       <c r="O7" s="1">
-        <v>0.94</v>
+        <v>0.96494167744296</v>
       </c>
       <c r="P7" s="1">
-        <v>8.4</v>
+        <v>6.634787811082024</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.68</v>
+        <v>0.94782683015457481</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -820,51 +817,51 @@
         <v>23</v>
       </c>
       <c r="D8" s="1">
-        <v>-1.5202895627830251</v>
+        <v>-0.96506821358200301</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1276966867452097</v>
+        <v>7.4978202108907294E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>507.9419203730784</v>
+        <v>506.37253297386974</v>
       </c>
       <c r="G8" s="1">
-        <v>3.9079362362403307</v>
+        <v>3.7654667575990621</v>
       </c>
       <c r="H8" s="1">
-        <v>-0.9697035896349141</v>
+        <v>-0.97139005754545826</v>
       </c>
       <c r="I8" s="1">
-        <v>2.9064421273261405</v>
+        <v>3.3237778300738401</v>
       </c>
       <c r="J8" s="1">
-        <v>0.41520601818944863</v>
+        <v>0.66475556601476804</v>
       </c>
       <c r="K8" s="1">
-        <v>2.228301612010732</v>
+        <v>0.94809649255091288</v>
       </c>
       <c r="L8" s="1">
-        <v>0.13526473317471491</v>
+        <v>7.7432088365703269E-2</v>
       </c>
       <c r="M8" s="1">
-        <v>505.42948501647555</v>
+        <v>501.17498529030632</v>
       </c>
       <c r="N8" s="1">
-        <v>4.1269047033831621</v>
+        <v>3.5328487303479186</v>
       </c>
       <c r="O8" s="1">
-        <v>0.96494167744296</v>
+        <v>0.9476697913396448</v>
       </c>
       <c r="P8" s="1">
-        <v>6.634787811082024</v>
+        <v>9.3196147048078668</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.94782683015457481</v>
+        <v>1.8639229409615734</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -873,263 +870,263 @@
         <v>23</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.96506821358200301</v>
+        <v>-0.36101535765626275</v>
       </c>
       <c r="E9" s="1">
-        <v>7.4978202108907294E-2</v>
+        <v>3.6643583575100905E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>506.37253297386974</v>
+        <v>512.02494043444278</v>
       </c>
       <c r="G9" s="1">
-        <v>3.7654667575990621</v>
+        <v>3.900872587779276</v>
       </c>
       <c r="H9" s="1">
-        <v>-0.97139005754545826</v>
+        <v>-0.98348791178347916</v>
       </c>
       <c r="I9" s="1">
-        <v>3.3237778300738401</v>
+        <v>0.799249534211812</v>
       </c>
       <c r="J9" s="1">
-        <v>0.66475556601476804</v>
+        <v>0.15984990684236239</v>
       </c>
       <c r="K9" s="1">
-        <v>0.94809649255091288</v>
+        <v>0.38977819554748516</v>
       </c>
       <c r="L9" s="1">
-        <v>7.7432088365703269E-2</v>
+        <v>3.9100773566695515E-2</v>
       </c>
       <c r="M9" s="1">
-        <v>501.17498529030632</v>
+        <v>507.69093419500092</v>
       </c>
       <c r="N9" s="1">
-        <v>3.5328487303479186</v>
+        <v>4.1346329093526641</v>
       </c>
       <c r="O9" s="1">
-        <v>0.9476697913396448</v>
+        <v>0.88141248975050446</v>
       </c>
       <c r="P9" s="1">
-        <v>9.3196147048078668</v>
+        <v>9.7290143057358218</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.8639229409615734</v>
+        <v>1.9458028611471643</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.36101535765626275</v>
+        <v>-0.3481640668139474</v>
       </c>
       <c r="E10" s="1">
-        <v>3.6643583575100905E-2</v>
+        <v>2.5128461920822014E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>512.02494043444278</v>
+        <v>487.08634272667422</v>
       </c>
       <c r="G10" s="1">
-        <v>3.900872587779276</v>
+        <v>2.6801125568906889</v>
       </c>
       <c r="H10" s="1">
-        <v>-0.98348791178347916</v>
+        <v>-0.94699134279053898</v>
       </c>
       <c r="I10" s="1">
-        <v>0.799249534211812</v>
+        <v>4.9935618897489285</v>
       </c>
       <c r="J10" s="1">
-        <v>0.15984990684236239</v>
+        <v>0.99871237794978573</v>
       </c>
       <c r="K10" s="1">
-        <v>0.38977819554748516</v>
+        <v>0.34559312770393896</v>
       </c>
       <c r="L10" s="1">
-        <v>3.9100773566695515E-2</v>
+        <v>3.3593901759560355E-2</v>
       </c>
       <c r="M10" s="1">
-        <v>507.69093419500092</v>
+        <v>489.62149856939493</v>
       </c>
       <c r="N10" s="1">
-        <v>4.1346329093526641</v>
+        <v>3.3752775103288539</v>
       </c>
       <c r="O10" s="1">
-        <v>0.88141248975050446</v>
+        <v>0.92126679409501822</v>
       </c>
       <c r="P10" s="1">
-        <v>9.7290143057358218</v>
+        <v>5.3991544545123276</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.9458028611471643</v>
+        <v>1.0798308909024654</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.3481640668139474</v>
+        <v>-0.49309640834562668</v>
       </c>
       <c r="E11" s="1">
-        <v>2.5128461920822014E-2</v>
+        <v>5.2068896297114843E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>487.08634272667422</v>
+        <v>497.34142403243334</v>
       </c>
       <c r="G11" s="1">
-        <v>2.6801125568906889</v>
+        <v>6.2594972662244857</v>
       </c>
       <c r="H11" s="1">
-        <v>-0.94699134279053898</v>
+        <v>-0.72906333030864334</v>
       </c>
       <c r="I11" s="1">
-        <v>4.9935618897489285</v>
+        <v>14.474298116853991</v>
       </c>
       <c r="J11" s="1">
-        <v>0.99871237794978573</v>
+        <v>2.8948596233707979</v>
       </c>
       <c r="K11" s="1">
-        <v>0.34559312770393896</v>
+        <v>0.19894337189265265</v>
       </c>
       <c r="L11" s="1">
-        <v>3.3593901759560355E-2</v>
+        <v>5.6976340461036078E-2</v>
       </c>
       <c r="M11" s="1">
-        <v>489.62149856939493</v>
+        <v>543.27877512275359</v>
       </c>
       <c r="N11" s="1">
-        <v>3.3752775103288539</v>
+        <v>4.5603710370333923</v>
       </c>
       <c r="O11" s="1">
-        <v>0.92126679409501822</v>
+        <v>0.75285250700540574</v>
       </c>
       <c r="P11" s="1">
-        <v>5.3991544545123276</v>
+        <v>9.0782340104378729</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.0798308909024654</v>
+        <v>1.8156468020875747</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
       <c r="D12" s="1">
-        <v>-0.49309640834562668</v>
+        <v>-0.1303080575561136</v>
       </c>
       <c r="E12" s="1">
-        <v>5.2068896297114843E-2</v>
+        <v>2.2641169949886169E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>497.34142403243334</v>
+        <v>493.49250685925011</v>
       </c>
       <c r="G12" s="1">
-        <v>6.2594972662244857</v>
+        <v>2.5410485383187056</v>
       </c>
       <c r="H12" s="1">
-        <v>-0.72906333030864334</v>
+        <v>-0.76598270678758129</v>
       </c>
       <c r="I12" s="1">
-        <v>14.474298116853991</v>
+        <v>5.2790956050368543</v>
       </c>
       <c r="J12" s="1">
-        <v>2.8948596233707979</v>
+        <v>1.0558191210073709</v>
       </c>
       <c r="K12" s="1">
-        <v>0.19894337189265265</v>
+        <v>0.1023487918795775</v>
       </c>
       <c r="L12" s="1">
-        <v>5.6976340461036078E-2</v>
+        <v>2.2289125026555119E-2</v>
       </c>
       <c r="M12" s="1">
-        <v>543.27877512275359</v>
+        <v>494.84521243988604</v>
       </c>
       <c r="N12" s="1">
-        <v>4.5603710370333923</v>
+        <v>2.5303655681698785</v>
       </c>
       <c r="O12" s="1">
-        <v>0.75285250700540574</v>
+        <v>0.52686289883367643</v>
       </c>
       <c r="P12" s="1">
-        <v>9.0782340104378729</v>
+        <v>6.8429384109352167</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.8156468020875747</v>
+        <v>1.3685876821870433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>-0.1303080575561136</v>
+        <v>-0.45046401754009702</v>
       </c>
       <c r="E13" s="1">
-        <v>2.2641169949886169E-2</v>
+        <v>7.8550065415004422E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>493.49250685925011</v>
+        <v>475.14726652950105</v>
       </c>
       <c r="G13" s="1">
-        <v>2.5410485383187056</v>
+        <v>8.3631012762784334</v>
       </c>
       <c r="H13" s="1">
-        <v>-0.76598270678758129</v>
+        <v>-0.76493835424664991</v>
       </c>
       <c r="I13" s="1">
-        <v>5.2790956050368543</v>
+        <v>5.9154035869490285</v>
       </c>
       <c r="J13" s="1">
-        <v>1.0558191210073709</v>
+        <v>1.1830807173898057</v>
       </c>
       <c r="K13" s="1">
-        <v>0.1023487918795775</v>
+        <v>0.22486459375201689</v>
       </c>
       <c r="L13" s="1">
-        <v>2.2289125026555119E-2</v>
+        <v>7.473842960151722E-2</v>
       </c>
       <c r="M13" s="1">
-        <v>494.84521243988604</v>
+        <v>503.64951207386463</v>
       </c>
       <c r="N13" s="1">
-        <v>2.5303655681698785</v>
+        <v>7.5561830864663921</v>
       </c>
       <c r="O13" s="1">
-        <v>0.52686289883367643</v>
+        <v>0.60693500790577437</v>
       </c>
       <c r="P13" s="1">
-        <v>6.8429384109352167</v>
+        <v>3.5120738899379096</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.3685876821870433</v>
+        <v>0.7024147779875819</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1138,51 +1135,51 @@
         <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>-0.45046401754009702</v>
+        <v>-0.43150925341645013</v>
       </c>
       <c r="E14" s="1">
-        <v>7.8550065415004422E-2</v>
+        <v>5.46808436382938E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>475.14726652950105</v>
+        <v>464.94157710915113</v>
       </c>
       <c r="G14" s="1">
-        <v>8.3631012762784334</v>
+        <v>5.884692616045923</v>
       </c>
       <c r="H14" s="1">
-        <v>-0.76493835424664991</v>
+        <v>-0.89067627079755185</v>
       </c>
       <c r="I14" s="1">
-        <v>5.9154035869490285</v>
+        <v>4.0246775714272438</v>
       </c>
       <c r="J14" s="1">
-        <v>1.1830807173898057</v>
+        <v>0.80493551428544874</v>
       </c>
       <c r="K14" s="1">
-        <v>0.22486459375201689</v>
+        <v>0.30900251383334637</v>
       </c>
       <c r="L14" s="1">
-        <v>7.473842960151722E-2</v>
+        <v>6.7422822299874341E-2</v>
       </c>
       <c r="M14" s="1">
-        <v>503.64951207386463</v>
+        <v>486.66077601249424</v>
       </c>
       <c r="N14" s="1">
-        <v>7.5561830864663921</v>
+        <v>7.4634605880173401</v>
       </c>
       <c r="O14" s="1">
-        <v>0.60693500790577437</v>
+        <v>0.81605653230189557</v>
       </c>
       <c r="P14" s="1">
-        <v>3.5120738899379096</v>
+        <v>3.5016009177196321</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.7024147779875819</v>
+        <v>0.70032018354392644</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1191,151 +1188,98 @@
         <v>6</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.43150925341645013</v>
+        <v>-0.35909685317584583</v>
       </c>
       <c r="E15" s="1">
-        <v>5.46808436382938E-2</v>
+        <v>9.245607773156661E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>464.94157710915113</v>
+        <v>462.80821680212193</v>
       </c>
       <c r="G15" s="1">
-        <v>5.884692616045923</v>
+        <v>7.6615516713384251</v>
       </c>
       <c r="H15" s="1">
-        <v>-0.89067627079755185</v>
+        <v>-0.76974781905136891</v>
       </c>
       <c r="I15" s="1">
-        <v>4.0246775714272438</v>
+        <v>3.1196685811400076</v>
       </c>
       <c r="J15" s="1">
-        <v>0.80493551428544874</v>
+        <v>0.62393371622800153</v>
       </c>
       <c r="K15" s="1">
-        <v>0.30900251383334637</v>
+        <v>0.22786654871947623</v>
       </c>
       <c r="L15" s="1">
-        <v>6.7422822299874341E-2</v>
+        <v>5.5017505061183768E-2</v>
       </c>
       <c r="M15" s="1">
-        <v>486.66077601249424</v>
+        <v>447.04946834542818</v>
       </c>
       <c r="N15" s="1">
-        <v>7.4634605880173401</v>
+        <v>5.0996826343326536</v>
       </c>
       <c r="O15" s="1">
-        <v>0.81605653230189557</v>
+        <v>0.68975815205376589</v>
       </c>
       <c r="P15" s="1">
-        <v>3.5016009177196321</v>
+        <v>8.0907581430896052</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.70032018354392644</v>
+        <v>1.6181516286179209</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.35909685317584583</v>
+        <v>-7.2630600679733856E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>9.245607773156661E-2</v>
+        <v>1.9738169087693807E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>462.80821680212193</v>
+        <v>413.13064236034569</v>
       </c>
       <c r="G16" s="1">
-        <v>7.6615516713384251</v>
+        <v>2.2623182821438834</v>
       </c>
       <c r="H16" s="1">
-        <v>-0.76974781905136891</v>
+        <v>-0.79186953252628478</v>
       </c>
       <c r="I16" s="1">
-        <v>3.1196685811400076</v>
+        <v>3.5473508906747049</v>
       </c>
       <c r="J16" s="1">
-        <v>0.62393371622800153</v>
+        <v>0.70947017813494095</v>
       </c>
       <c r="K16" s="1">
-        <v>0.22786654871947623</v>
+        <v>0.10236930579220017</v>
       </c>
       <c r="L16" s="1">
-        <v>5.5017505061183768E-2</v>
+        <v>2.0156969821533973E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>447.04946834542818</v>
+        <v>410.64939638925512</v>
       </c>
       <c r="N16" s="1">
-        <v>5.0996826343326536</v>
+        <v>2.2570021977500012</v>
       </c>
       <c r="O16" s="1">
-        <v>0.68975815205376589</v>
+        <v>0.9726503857696025</v>
       </c>
       <c r="P16" s="1">
-        <v>8.0907581430896052</v>
+        <v>0.51997718513812163</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.6181516286179209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-7.2630600679733856E-2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.9738169087693807E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>413.13064236034569</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2.2623182821438834</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-0.79186953252628478</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3.5473508906747049</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.70947017813494095</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.10236930579220017</v>
-      </c>
-      <c r="L17" s="1">
-        <v>2.0156969821533973E-2</v>
-      </c>
-      <c r="M17" s="1">
-        <v>410.64939638925512</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2.2570021977500012</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0.9726503857696025</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0.51997718513812163</v>
-      </c>
-      <c r="Q17" s="1">
         <v>0.10399543702762433</v>
       </c>
     </row>
